--- a/dati/phasesweepC.xlsx
+++ b/dati/phasesweepC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iside\Desktop\circuiti labview\prova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simonevaligi\root\macros\circuiti\graph_V\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95302135-0E4A-425F-82A8-C789DCE953A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97213A96-1AF2-492E-A91C-5059EECD143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17256" windowHeight="8880"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_959647" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,8 +569,4335 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lvtemporary_959647!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude - Plot 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lvtemporary_959647!$A$2:$A$577</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="576"/>
+                <c:pt idx="4">
+                  <c:v>400.512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600.15599999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600.154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800.19600000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1200.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1200.29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200.29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3600.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4600.21</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5000.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5200.18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5400.21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5400.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5400.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5600.27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5600.27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5600.26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5800.32</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6000.17</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6200.22</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6200.22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6200.23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6400.27</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6400.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6400.27</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6600.33</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6600.33</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6800.18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7000.23</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7400.33</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7800.24</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7800.24</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>14600.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14600.3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>14600.2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15000.4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>15000.4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>18800.3</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>21800.3</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>21800.3</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>24800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>24800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>25200.5</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>28200.5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>28600.3</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>29000.5</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>29000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>29000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>31600.3</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>31600.3</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>31600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lvtemporary_959647!$B$2:$B$577</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="576"/>
+                <c:pt idx="4">
+                  <c:v>-14.444699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.442299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.437099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-20.615600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20.605599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26.568300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-26.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-26.6252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-26.580100000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31.9011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-31.9178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-36.718499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-36.743099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-36.701300000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-41.0105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-41.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-41.005099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-41.004399999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-44.799500000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-44.8172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-44.825200000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-48.150599999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-48.154800000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-48.205399999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-51.153399999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-51.126600000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-51.146500000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-51.139099999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-53.857599999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-53.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-56.227499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-56.279800000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-56.272599999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-58.387500000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-58.377400000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-58.389600000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-58.401800000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-60.296900000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-60.284799999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-60.2898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-62.026600000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-62.026200000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-62.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-63.586199999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-63.597299999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-63.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-65.064899999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-65.055599999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-65.044700000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-65.084900000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-66.426299999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-66.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-66.412199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-67.608599999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-67.673900000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-67.630200000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-68.740499999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-68.805999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-68.77</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-68.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-69.802099999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-69.774600000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-69.825900000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-70.748199999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-70.787999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-70.785200000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-71.647900000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-71.647099999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-71.643799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-71.612899999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-72.524299999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-72.525199999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-72.554299999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-73.342299999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-73.366600000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-73.365399999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-74.113600000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-74.0655</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-74.094399999999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-74.0702</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-74.798500000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-74.756799999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-74.808199999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-75.477199999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-75.437700000000007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-75.419799999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-76.005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-76.034300000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-76.021900000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-76.697100000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-76.685299999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-76.5869</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-76.694999999999993</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-77.238600000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-77.162599999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-77.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-77.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-77.738799999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-77.738399999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-78.245199999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-78.284599999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-78.194900000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-78.245900000000006</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-78.733999999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-78.787999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-78.788700000000006</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-79.299400000000006</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-79.2547</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-79.224699999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-79.657300000000006</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-79.641499999999994</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-79.665700000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-79.692300000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-80.179100000000005</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-80.002600000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-80.0291</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-80.545900000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-80.576300000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-80.439499999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-80.959800000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-80.881799999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-80.891099999999994</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-80.989699999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-81.367900000000006</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-81.316699999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-81.3536</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-81.663600000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-81.664699999999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-81.719300000000004</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-81.960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-82.031400000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-82.041799999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-82.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-82.351399999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-82.429000000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-82.429199999999994</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-82.680499999999995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-82.688100000000006</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-82.599500000000006</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-82.909499999999994</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-82.915999999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-83.014399999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-83.405500000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-83.289699999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-83.250799999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-83.260300000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-83.633600000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-83.679599999999994</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-83.659800000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-83.903499999999994</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-83.914900000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-83.912999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-84.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-84.122699999999995</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-84.243899999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-84.169499999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-84.403400000000005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-84.320300000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-84.375100000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-84.608500000000006</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-84.665000000000006</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-84.730400000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-85.003200000000007</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-85.000399999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-84.875100000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-85.124700000000004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-85.229600000000005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-85.113600000000005</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-85.215199999999996</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-85.481300000000005</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-85.356700000000004</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-85.313999999999993</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-85.679599999999994</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-85.637699999999995</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-85.664199999999994</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-85.855199999999996</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-85.937899999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-85.805000000000007</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-85.822999999999993</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-86.007900000000006</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-86.070099999999996</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-86.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-86.223799999999997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-86.303600000000003</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-86.395700000000005</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-86.5364</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-86.4893</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-86.488699999999994</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-86.373999999999995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-86.813299999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-86.630899999999997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-86.720100000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-86.926699999999997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-86.862399999999994</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-86.824299999999994</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-86.936499999999995</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-87.156599999999997</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-87.005899999999997</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-86.937399999999997</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-87.139899999999997</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-87.130899999999997</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-87.209100000000007</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-87.411000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-87.442800000000005</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-87.367199999999997</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-87.595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-87.572599999999994</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-87.6554</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-87.68</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-87.626599999999996</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-87.631699999999995</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-87.848299999999995</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-87.892399999999995</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-88.035799999999995</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-87.942800000000005</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-88.067099999999996</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-88.134200000000007</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-88.159700000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-88.325400000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-88.224699999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-88.308700000000002</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-88.160200000000003</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-88.361599999999996</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-88.273499999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-88.312799999999996</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-88.460300000000004</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-88.5625</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-88.638499999999993</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-88.746300000000005</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-88.740300000000005</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-88.658699999999996</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-88.596299999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-88.775700000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-88.756200000000007</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-88.784499999999994</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-89.077699999999993</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-89.019499999999994</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-89.018100000000004</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-89.185400000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-89.001000000000005</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-88.940200000000004</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-89.048400000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-89.126000000000005</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-89.308400000000006</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-89.083799999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-89.221400000000003</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-89.234800000000007</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-89.256799999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-89.410700000000006</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-89.569199999999995</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-89.483500000000006</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-89.470399999999998</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-89.53</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-89.568299999999994</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-89.484200000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-89.611900000000006</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-89.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-89.6464</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-89.922300000000007</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-89.8386</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-89.798100000000005</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-89.817700000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-89.810299999999998</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-90.072699999999998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-89.741900000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-89.912499999999994</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-90.014499999999998</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-90.048500000000004</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-90.105599999999995</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-90.204800000000006</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-90.049899999999994</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-90.108999999999995</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-90.134600000000006</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-90.1845</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-90.151799999999994</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-90.393500000000003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-90.423199999999994</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-90.430899999999994</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-90.473299999999995</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-90.331599999999995</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-90.570499999999996</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-90.514700000000005</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-90.4786</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-90.606499999999997</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-90.616299999999995</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-90.715900000000005</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-90.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-90.494500000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-90.6648</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-90.563699999999997</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-90.602999999999994</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-90.712199999999996</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-90.743300000000005</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-90.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-90.796899999999994</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-90.778999999999996</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-90.764899999999997</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-90.8626</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-90.936499999999995</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-91.079400000000007</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-90.803100000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-91.000399999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-91.041200000000003</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-90.914699999999996</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-91.046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-90.960800000000006</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-91.0197</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-91.071399999999997</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-91.351799999999997</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-91.229699999999994</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-91.222399999999993</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-91.115700000000004</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-91.388900000000007</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-91.231399999999994</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-91.181100000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-91.259299999999996</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-91.388800000000003</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-91.352800000000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-91.341200000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-91.221299999999999</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-91.447800000000001</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>268.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>268.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>268.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-91.579499999999996</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-91.637500000000003</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-91.615600000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-91.692899999999995</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-91.475300000000004</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-91.375399999999999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-91.774699999999996</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-91.530100000000004</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-91.432500000000005</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-91.694400000000002</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-91.794600000000003</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-91.804400000000001</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-91.787499999999994</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-91.838499999999996</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-91.8904</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-91.675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-91.850099999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-91.947999999999993</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-91.694900000000004</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-91.8065</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-91.872200000000007</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-91.756600000000006</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-91.957599999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-91.785600000000002</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-91.907799999999995</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-91.786199999999994</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-92.1267</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-92.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-91.739699999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-91.838700000000003</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-91.887299999999996</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-92.123699999999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-92.0184</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-92.182500000000005</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-92.165400000000005</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-91.8566</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-92.1447</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-92.251900000000006</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-92.260099999999994</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-92.208699999999993</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-91.967299999999994</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-92.207599999999999</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-92.278899999999993</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-92.315399999999997</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-92.009299999999996</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-92.309600000000003</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-92.204899999999995</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-92.335400000000007</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-92.285700000000006</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-92.026700000000005</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-92.429299999999998</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-92.144800000000004</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-92.3874</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-92.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-92.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-92.063699999999997</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-92.465299999999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-92.455299999999994</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-92.437100000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-92.385999999999996</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-92.344800000000006</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-92.210300000000004</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-92.522999999999996</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-92.490399999999994</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-92.4709</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-92.5184</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-92.398899999999998</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-92.375600000000006</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-92.488699999999994</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-92.440899999999999</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-92.577200000000005</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-92.351900000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-92.367500000000007</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-92.262</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-92.564499999999995</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-92.356800000000007</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-92.686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-92.251499999999993</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-92.251300000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-92.296899999999994</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-92.220399999999998</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-92.615200000000002</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-92.514300000000006</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-92.540400000000005</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-92.368600000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-92.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-92.442700000000002</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-92.369200000000006</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-92.483199999999997</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-92.587000000000003</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-92.3155</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-92.283299999999997</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-92.635599999999997</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-92.5839</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-92.399500000000003</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-92.405299999999997</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-92.483000000000004</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-92.406099999999995</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-92.3108</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-92.4178</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-92.400400000000005</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-92.548500000000004</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-92.675899999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-92.501000000000005</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-92.645700000000005</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-92.660200000000003</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-92.458799999999997</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-92.601299999999995</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-92.669799999999995</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-92.638499999999993</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-92.715299999999999</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-92.754800000000003</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-92.516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-92.328400000000002</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-92.460499999999996</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-92.391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-92.548199999999994</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-92.545500000000004</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-92.382499999999993</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-92.326700000000002</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>-92.367699999999999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-92.465500000000006</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-92.711200000000005</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-92.643500000000003</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-92.691100000000006</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-92.582899999999995</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-92.644099999999995</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-92.524500000000003</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-92.498400000000004</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-92.308899999999994</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-92.486699999999999</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-92.369299999999996</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-92.541899999999998</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-92.511200000000002</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-92.480699999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-92.757499999999993</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>-92.389899999999997</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-92.52</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>-92.708200000000005</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>-92.579800000000006</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-92.7089</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-92.623900000000006</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>-92.302099999999996</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-92.587999999999994</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-92.364800000000002</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>-92.523300000000006</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-92.606800000000007</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-92.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>-92.373699999999999</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-92.590900000000005</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-92.247699999999995</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-92.191199999999995</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-92.408100000000005</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>267.601</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>267.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>267.73200000000003</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-92.627700000000004</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-92.169399999999996</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-92.404300000000006</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-92.244100000000003</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-92.280500000000004</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-92.474699999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>-92.227699999999999</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-92.194199999999995</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-92.216200000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-92.341399999999993</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-92.319199999999995</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-92.175700000000006</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>-92.107200000000006</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-92.2517</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-92.502399999999994</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-92.244200000000006</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>-92.366500000000002</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-92.312799999999996</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-92.530199999999994</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-92.536699999999996</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-92.434799999999996</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-92.479699999999994</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-92.099199999999996</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-92.217799999999997</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-92.253699999999995</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-92.541300000000007</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-92.074600000000004</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-92.181799999999996</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-92.387900000000002</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-92.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-92.389200000000002</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-91.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>-91.935100000000006</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>-92.186700000000002</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>-91.929599999999994</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-92.259699999999995</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>-91.847399999999993</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>-92.130099999999999</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>-92.238299999999995</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-92.355099999999993</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-91.827100000000002</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-92.212900000000005</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>-92.042299999999997</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-92.041700000000006</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-91.981399999999994</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-92.254499999999993</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>-91.977000000000004</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-92.097200000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>-92.276200000000003</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-92.152299999999997</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-91.994</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-91.744299999999996</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>-92.276200000000003</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-91.766199999999998</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-92.127600000000001</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-91.869100000000003</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-91.775599999999997</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-91.837900000000005</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-91.709199999999996</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-92.071700000000007</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-92.020099999999999</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-92.129300000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-91.758899999999997</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-91.775300000000001</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-91.940399999999997</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-91.616</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-91.77</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-91.805599999999998</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-91.557400000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-91.979500000000002</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-91.633399999999995</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-91.752799999999993</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-91.579899999999995</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-91.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-91.689800000000005</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-91.993399999999994</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-91.4452</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-91.4405</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-91.546400000000006</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-91.527299999999997</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-91.337500000000006</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-91.7547</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-91.418099999999995</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-91.598399999999998</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-91.477699999999999</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-91.6387</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>-91.272300000000001</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-91.239199999999997</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-91.484999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9533-46A8-B7C8-37AE2585FB3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1367593312"/>
+        <c:axId val="1367592352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1367593312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1367592352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1367592352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1367593312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761A5870-C0E7-3D60-0BB0-76CE75AB9868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,18 +5212,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,39 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>279.65300000000002</v>
-      </c>
-      <c r="B2">
-        <v>-69.499899999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>279.82</v>
-      </c>
-      <c r="B3">
-        <v>-69.424700000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>279.88799999999998</v>
-      </c>
-      <c r="B4">
-        <v>-69.318600000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>279.83800000000002</v>
-      </c>
-      <c r="B5">
-        <v>-69.380899999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>400.512</v>
       </c>
@@ -944,7 +5241,7 @@
         <v>-14.444699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400.51</v>
       </c>
@@ -952,7 +5249,7 @@
         <v>-14.442299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>400.50900000000001</v>
       </c>
@@ -960,7 +5257,7 @@
         <v>-14.437099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600.15599999999995</v>
       </c>
@@ -968,7 +5265,7 @@
         <v>-20.615600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>600.15499999999997</v>
       </c>
@@ -976,7 +5273,7 @@
         <v>-20.631</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>600.154</v>
       </c>
@@ -984,7 +5281,7 @@
         <v>-20.605599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>800.2</v>
       </c>
@@ -992,7 +5289,7 @@
         <v>-26.568300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>800.20100000000002</v>
       </c>
@@ -1000,7 +5297,7 @@
         <v>-26.582000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>800.19600000000003</v>
       </c>
@@ -1008,7 +5305,7 @@
         <v>-26.6252</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>800.19899999999996</v>
       </c>
@@ -1016,7 +5313,7 @@
         <v>-26.580100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1000.25</v>
       </c>
@@ -1024,7 +5321,7 @@
         <v>-31.911000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1000.25</v>
       </c>
@@ -1032,7 +5329,7 @@
         <v>-31.9011</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1000.25</v>
       </c>
@@ -1040,7 +5337,7 @@
         <v>-31.9178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1200.29</v>
       </c>
@@ -1048,7 +5345,7 @@
         <v>-36.718499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1200.29</v>
       </c>
@@ -1056,7 +5353,7 @@
         <v>-36.743099999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1200.29</v>
       </c>
@@ -1064,7 +5361,7 @@
         <v>-36.701300000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1400.16</v>
       </c>
@@ -1072,7 +5369,7 @@
         <v>-41.0105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1400.16</v>
       </c>
@@ -1080,7 +5377,7 @@
         <v>-41.005000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1400.16</v>
       </c>
@@ -1088,7 +5385,7 @@
         <v>-41.005099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1400.16</v>
       </c>
@@ -1096,7 +5393,7 @@
         <v>-41.004399999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1600.21</v>
       </c>
@@ -1104,7 +5401,7 @@
         <v>-44.799500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1600.21</v>
       </c>
@@ -1112,7 +5409,7 @@
         <v>-44.8172</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1600.21</v>
       </c>
@@ -1120,7 +5417,7 @@
         <v>-44.825200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1800.26</v>
       </c>
@@ -1128,7 +5425,7 @@
         <v>-48.150599999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1800.26</v>
       </c>
@@ -1136,7 +5433,7 @@
         <v>-48.154800000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1800.26</v>
       </c>
@@ -1144,7 +5441,7 @@
         <v>-48.205399999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2000.12</v>
       </c>
@@ -1152,7 +5449,7 @@
         <v>-51.153399999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2000.12</v>
       </c>
@@ -1160,7 +5457,7 @@
         <v>-51.126600000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2000.12</v>
       </c>
@@ -1168,7 +5465,7 @@
         <v>-51.146500000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2000.12</v>
       </c>
@@ -1176,7 +5473,7 @@
         <v>-51.139099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2200.17</v>
       </c>
@@ -1184,7 +5481,7 @@
         <v>-53.857599999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2200.17</v>
       </c>
@@ -1192,7 +5489,7 @@
         <v>-53.798000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2200.17</v>
       </c>
@@ -1200,7 +5497,7 @@
         <v>-53.860999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2400.2199999999998</v>
       </c>
@@ -1208,7 +5505,7 @@
         <v>-56.227499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2400.2199999999998</v>
       </c>
@@ -1216,7 +5513,7 @@
         <v>-56.279800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2400.2199999999998</v>
       </c>
@@ -1224,7 +5521,7 @@
         <v>-56.272599999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2600.27</v>
       </c>
@@ -1232,7 +5529,7 @@
         <v>-58.387500000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2600.27</v>
       </c>
@@ -1240,7 +5537,7 @@
         <v>-58.377400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2600.27</v>
       </c>
@@ -1248,7 +5545,7 @@
         <v>-58.389600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2600.27</v>
       </c>
@@ -1256,7 +5553,7 @@
         <v>-58.401800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2800.13</v>
       </c>
@@ -1264,7 +5561,7 @@
         <v>-60.296900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2800.13</v>
       </c>
@@ -1272,7 +5569,7 @@
         <v>-60.284799999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2800.13</v>
       </c>
@@ -1280,7 +5577,7 @@
         <v>-60.2898</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3000.18</v>
       </c>
@@ -1288,7 +5585,7 @@
         <v>-62.026600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3000.18</v>
       </c>
@@ -1296,7 +5593,7 @@
         <v>-62.026200000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3000.18</v>
       </c>
@@ -1304,7 +5601,7 @@
         <v>-62.002000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3200.23</v>
       </c>
@@ -1312,7 +5609,7 @@
         <v>-63.586199999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3200.23</v>
       </c>
@@ -1320,7 +5617,7 @@
         <v>-63.597299999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3200.23</v>
       </c>
@@ -1328,7 +5625,7 @@
         <v>-63.597000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3400.28</v>
       </c>
@@ -1336,7 +5633,7 @@
         <v>-65.064899999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3400.28</v>
       </c>
@@ -1344,7 +5641,7 @@
         <v>-65.055599999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3400.28</v>
       </c>
@@ -1352,7 +5649,7 @@
         <v>-65.044700000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3400.28</v>
       </c>
@@ -1360,7 +5657,7 @@
         <v>-65.084900000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3600.14</v>
       </c>
@@ -1368,7 +5665,7 @@
         <v>-66.426299999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3600.14</v>
       </c>
@@ -1376,7 +5673,7 @@
         <v>-66.399000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3600.15</v>
       </c>
@@ -1384,7 +5681,7 @@
         <v>-66.412199999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3800.19</v>
       </c>
@@ -1392,7 +5689,7 @@
         <v>-67.608599999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3800.19</v>
       </c>
@@ -1400,7 +5697,7 @@
         <v>-67.673900000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3800.19</v>
       </c>
@@ -1408,7 +5705,7 @@
         <v>-67.630200000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>4000.24</v>
       </c>
@@ -1416,7 +5713,7 @@
         <v>-68.740499999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>4000.24</v>
       </c>
@@ -1424,7 +5721,7 @@
         <v>-68.805999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>4000.24</v>
       </c>
@@ -1432,7 +5729,7 @@
         <v>-68.77</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4000.24</v>
       </c>
@@ -1440,7 +5737,7 @@
         <v>-68.768000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>4200.29</v>
       </c>
@@ -1448,7 +5745,7 @@
         <v>-69.802099999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>4200.29</v>
       </c>
@@ -1456,7 +5753,7 @@
         <v>-69.774600000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>4200.29</v>
       </c>
@@ -1464,7 +5761,7 @@
         <v>-69.825900000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>4400.1499999999996</v>
       </c>
@@ -1472,7 +5769,7 @@
         <v>-70.748199999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>4400.1499999999996</v>
       </c>
@@ -1480,7 +5777,7 @@
         <v>-70.787999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>4400.1499999999996</v>
       </c>
@@ -1488,7 +5785,7 @@
         <v>-70.785200000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>4600.2</v>
       </c>
@@ -1496,7 +5793,7 @@
         <v>-71.647900000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>4600.21</v>
       </c>
@@ -1504,7 +5801,7 @@
         <v>-71.647099999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4600.2</v>
       </c>
@@ -1512,7 +5809,7 @@
         <v>-71.643799999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4600.2</v>
       </c>
@@ -1520,7 +5817,7 @@
         <v>-71.612899999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>4800.25</v>
       </c>
@@ -1528,7 +5825,7 @@
         <v>-72.524299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>4800.25</v>
       </c>
@@ -1536,7 +5833,7 @@
         <v>-72.525199999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>4800.25</v>
       </c>
@@ -1544,7 +5841,7 @@
         <v>-72.554299999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>5000.3100000000004</v>
       </c>
@@ -1552,7 +5849,7 @@
         <v>-73.342299999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>5000.3</v>
       </c>
@@ -1560,7 +5857,7 @@
         <v>-73.366600000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>5000.3</v>
       </c>
@@ -1568,7 +5865,7 @@
         <v>-73.365399999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>5200.17</v>
       </c>
@@ -1576,7 +5873,7 @@
         <v>-74.113600000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>5200.17</v>
       </c>
@@ -1584,7 +5881,7 @@
         <v>-74.0655</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>5200.17</v>
       </c>
@@ -1592,7 +5889,7 @@
         <v>-74.094399999999993</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>5200.18</v>
       </c>
@@ -1600,7 +5897,7 @@
         <v>-74.0702</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>5400.21</v>
       </c>
@@ -1608,7 +5905,7 @@
         <v>-74.798500000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>5400.22</v>
       </c>
@@ -1616,7 +5913,7 @@
         <v>-74.756799999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>5400.22</v>
       </c>
@@ -1624,7 +5921,7 @@
         <v>-74.808199999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5600.27</v>
       </c>
@@ -1632,7 +5929,7 @@
         <v>-75.477199999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>5600.27</v>
       </c>
@@ -1640,7 +5937,7 @@
         <v>-75.437700000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>5600.26</v>
       </c>
@@ -1648,7 +5945,7 @@
         <v>-75.419799999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5800.31</v>
       </c>
@@ -1656,7 +5953,7 @@
         <v>-76.005600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>5800.32</v>
       </c>
@@ -1664,7 +5961,7 @@
         <v>-76.034300000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>5800.31</v>
       </c>
@@ -1672,7 +5969,7 @@
         <v>-76.021900000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>6000.18</v>
       </c>
@@ -1680,7 +5977,7 @@
         <v>-76.697100000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>6000.17</v>
       </c>
@@ -1688,7 +5985,7 @@
         <v>-76.685299999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>6000.18</v>
       </c>
@@ -1696,7 +5993,7 @@
         <v>-76.5869</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6000.18</v>
       </c>
@@ -1704,7 +6001,7 @@
         <v>-76.694999999999993</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6200.22</v>
       </c>
@@ -1712,7 +6009,7 @@
         <v>-77.238600000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6200.22</v>
       </c>
@@ -1720,7 +6017,7 @@
         <v>-77.162599999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6200.23</v>
       </c>
@@ -1728,7 +6025,7 @@
         <v>-77.158000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6400.27</v>
       </c>
@@ -1736,7 +6033,7 @@
         <v>-77.725999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>6400.27</v>
       </c>
@@ -1744,7 +6041,7 @@
         <v>-77.738799999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6400.27</v>
       </c>
@@ -1752,7 +6049,7 @@
         <v>-77.738399999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>6600.33</v>
       </c>
@@ -1760,7 +6057,7 @@
         <v>-78.245199999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>6600.32</v>
       </c>
@@ -1768,7 +6065,7 @@
         <v>-78.284599999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>6600.32</v>
       </c>
@@ -1776,7 +6073,7 @@
         <v>-78.194900000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>6600.33</v>
       </c>
@@ -1784,7 +6081,7 @@
         <v>-78.245900000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>6800.19</v>
       </c>
@@ -1792,7 +6089,7 @@
         <v>-78.733999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>6800.18</v>
       </c>
@@ -1800,7 +6097,7 @@
         <v>-78.787999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>6800.19</v>
       </c>
@@ -1808,7 +6105,7 @@
         <v>-78.788700000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>7000.24</v>
       </c>
@@ -1816,7 +6113,7 @@
         <v>-79.299400000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>7000.24</v>
       </c>
@@ -1824,7 +6121,7 @@
         <v>-79.2547</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>7000.23</v>
       </c>
@@ -1832,7 +6129,7 @@
         <v>-79.224699999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>7200.29</v>
       </c>
@@ -1840,7 +6137,7 @@
         <v>-79.657300000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>7200.29</v>
       </c>
@@ -1848,7 +6145,7 @@
         <v>-79.641499999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>7200.29</v>
       </c>
@@ -1856,7 +6153,7 @@
         <v>-79.665700000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>7200.29</v>
       </c>
@@ -1864,7 +6161,7 @@
         <v>-79.692300000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>7400.33</v>
       </c>
@@ -1872,7 +6169,7 @@
         <v>-80.179100000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7400.34</v>
       </c>
@@ -1880,7 +6177,7 @@
         <v>-80.002600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>7400.34</v>
       </c>
@@ -1888,7 +6185,7 @@
         <v>-80.0291</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>7600.2</v>
       </c>
@@ -1896,7 +6193,7 @@
         <v>-80.545900000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>7600.2</v>
       </c>
@@ -1904,7 +6201,7 @@
         <v>-80.576300000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>7600.2</v>
       </c>
@@ -1912,7 +6209,7 @@
         <v>-80.439499999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>7800.25</v>
       </c>
@@ -1920,7 +6217,7 @@
         <v>-80.959800000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>7800.24</v>
       </c>
@@ -1928,7 +6225,7 @@
         <v>-80.881799999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>7800.24</v>
       </c>
@@ -1936,7 +6233,7 @@
         <v>-80.891099999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>7800.25</v>
       </c>
@@ -1944,7 +6241,7 @@
         <v>-80.989699999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>8000.3</v>
       </c>
@@ -1952,7 +6249,7 @@
         <v>-81.367900000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8000.3</v>
       </c>
@@ -1960,7 +6257,7 @@
         <v>-81.316699999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>8000.3</v>
       </c>
@@ -1968,7 +6265,7 @@
         <v>-81.3536</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>8200.16</v>
       </c>
@@ -1976,7 +6273,7 @@
         <v>-81.663600000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>8200.16</v>
       </c>
@@ -1984,7 +6281,7 @@
         <v>-81.664699999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8200.16</v>
       </c>
@@ -1992,7 +6289,7 @@
         <v>-81.719300000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>8400.2099999999991</v>
       </c>
@@ -2000,7 +6297,7 @@
         <v>-81.960599999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>8400.2099999999991</v>
       </c>
@@ -2008,7 +6305,7 @@
         <v>-82.031400000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>8400.2099999999991</v>
       </c>
@@ -2016,7 +6313,7 @@
         <v>-82.041799999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>8600.26</v>
       </c>
@@ -2024,7 +6321,7 @@
         <v>-82.326999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>8600.26</v>
       </c>
@@ -2032,7 +6329,7 @@
         <v>-82.351399999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>8600.26</v>
       </c>
@@ -2040,7 +6337,7 @@
         <v>-82.429000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>8600.26</v>
       </c>
@@ -2048,7 +6345,7 @@
         <v>-82.429199999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>8800.31</v>
       </c>
@@ -2056,7 +6353,7 @@
         <v>-82.680499999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>8800.31</v>
       </c>
@@ -2064,7 +6361,7 @@
         <v>-82.688100000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>8800.31</v>
       </c>
@@ -2072,7 +6369,7 @@
         <v>-82.599500000000006</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>9000.17</v>
       </c>
@@ -2080,7 +6377,7 @@
         <v>-82.909499999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>9000.17</v>
       </c>
@@ -2088,7 +6385,7 @@
         <v>-82.915999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>9000.17</v>
       </c>
@@ -2096,7 +6393,7 @@
         <v>-83.014399999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>9200.2199999999993</v>
       </c>
@@ -2104,7 +6401,7 @@
         <v>-83.405500000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>9200.2199999999993</v>
       </c>
@@ -2112,7 +6409,7 @@
         <v>-83.289699999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>9200.2199999999993</v>
       </c>
@@ -2120,7 +6417,7 @@
         <v>-83.250799999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>9200.2199999999993</v>
       </c>
@@ -2128,7 +6425,7 @@
         <v>-83.260300000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>9400.27</v>
       </c>
@@ -2136,7 +6433,7 @@
         <v>-83.633600000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>9400.27</v>
       </c>
@@ -2144,7 +6441,7 @@
         <v>-83.679599999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>9400.27</v>
       </c>
@@ -2152,7 +6449,7 @@
         <v>-83.659800000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>9600.32</v>
       </c>
@@ -2160,7 +6457,7 @@
         <v>-83.903499999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>9600.32</v>
       </c>
@@ -2168,7 +6465,7 @@
         <v>-83.914900000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>9600.32</v>
       </c>
@@ -2176,7 +6473,7 @@
         <v>-83.912999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>9800.18</v>
       </c>
@@ -2184,7 +6481,7 @@
         <v>-84.216700000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>9800.18</v>
       </c>
@@ -2192,7 +6489,7 @@
         <v>-84.122699999999995</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>9800.18</v>
       </c>
@@ -2200,7 +6497,7 @@
         <v>-84.243899999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>9800.18</v>
       </c>
@@ -2208,7 +6505,7 @@
         <v>-84.169499999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>10000.200000000001</v>
       </c>
@@ -2216,7 +6513,7 @@
         <v>-84.403400000000005</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>10000.200000000001</v>
       </c>
@@ -2224,7 +6521,7 @@
         <v>-84.320300000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>10000.200000000001</v>
       </c>
@@ -2232,7 +6529,7 @@
         <v>-84.375100000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>10200.299999999999</v>
       </c>
@@ -2240,7 +6537,7 @@
         <v>-84.608500000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>10200.299999999999</v>
       </c>
@@ -2248,7 +6545,7 @@
         <v>-84.665000000000006</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>10200.299999999999</v>
       </c>
@@ -2256,7 +6553,7 @@
         <v>-84.730400000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>10400.299999999999</v>
       </c>
@@ -2264,7 +6561,7 @@
         <v>-85.003200000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>10400.299999999999</v>
       </c>
@@ -2272,7 +6569,7 @@
         <v>-85.000399999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>10400.299999999999</v>
       </c>
@@ -2280,7 +6577,7 @@
         <v>-84.875100000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>10600.2</v>
       </c>
@@ -2288,7 +6585,7 @@
         <v>-85.124700000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>10600.2</v>
       </c>
@@ -2296,7 +6593,7 @@
         <v>-85.229600000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>10600.2</v>
       </c>
@@ -2304,7 +6601,7 @@
         <v>-85.113600000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>10600.2</v>
       </c>
@@ -2312,7 +6609,7 @@
         <v>-85.215199999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>10800.2</v>
       </c>
@@ -2320,7 +6617,7 @@
         <v>-85.481300000000005</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>10800.2</v>
       </c>
@@ -2328,7 +6625,7 @@
         <v>-85.356700000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>10800.2</v>
       </c>
@@ -2336,7 +6633,7 @@
         <v>-85.313999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>11000.3</v>
       </c>
@@ -2344,7 +6641,7 @@
         <v>-85.679599999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>11000.3</v>
       </c>
@@ -2352,7 +6649,7 @@
         <v>-85.637699999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>11000.3</v>
       </c>
@@ -2360,7 +6657,7 @@
         <v>-85.664199999999994</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>11200.3</v>
       </c>
@@ -2368,7 +6665,7 @@
         <v>-85.855199999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>11200.3</v>
       </c>
@@ -2376,7 +6673,7 @@
         <v>-85.937899999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>11200.3</v>
       </c>
@@ -2384,7 +6681,7 @@
         <v>-85.805000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>11200.3</v>
       </c>
@@ -2392,7 +6689,7 @@
         <v>-85.822999999999993</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>11400.2</v>
       </c>
@@ -2400,7 +6697,7 @@
         <v>-86.007900000000006</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>11400.2</v>
       </c>
@@ -2408,7 +6705,7 @@
         <v>-86.070099999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>11400.2</v>
       </c>
@@ -2416,7 +6713,7 @@
         <v>-86.081000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>11600.3</v>
       </c>
@@ -2424,7 +6721,7 @@
         <v>-86.223799999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>11600.3</v>
       </c>
@@ -2432,7 +6729,7 @@
         <v>-86.303600000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>11600.3</v>
       </c>
@@ -2440,7 +6737,7 @@
         <v>-86.395700000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>11800.3</v>
       </c>
@@ -2448,7 +6745,7 @@
         <v>-86.5364</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>11800.3</v>
       </c>
@@ -2456,7 +6753,7 @@
         <v>-86.4893</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>11800.3</v>
       </c>
@@ -2464,7 +6761,7 @@
         <v>-86.488699999999994</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>11800.3</v>
       </c>
@@ -2472,7 +6769,7 @@
         <v>-86.373999999999995</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>12000.4</v>
       </c>
@@ -2480,7 +6777,7 @@
         <v>-86.813299999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>12000.4</v>
       </c>
@@ -2488,7 +6785,7 @@
         <v>-86.630899999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>12000.4</v>
       </c>
@@ -2496,7 +6793,7 @@
         <v>-86.720100000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>12200.2</v>
       </c>
@@ -2504,7 +6801,7 @@
         <v>-86.926699999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>12200.2</v>
       </c>
@@ -2512,7 +6809,7 @@
         <v>-86.862399999999994</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>12200.2</v>
       </c>
@@ -2520,7 +6817,7 @@
         <v>-86.824299999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>12400.3</v>
       </c>
@@ -2528,7 +6825,7 @@
         <v>-86.936499999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>12400.3</v>
       </c>
@@ -2536,7 +6833,7 @@
         <v>-87.156599999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>12400.3</v>
       </c>
@@ -2544,7 +6841,7 @@
         <v>-87.005899999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>12400.3</v>
       </c>
@@ -2552,7 +6849,7 @@
         <v>-86.937399999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>12600.3</v>
       </c>
@@ -2560,7 +6857,7 @@
         <v>-87.139899999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>12600.3</v>
       </c>
@@ -2568,7 +6865,7 @@
         <v>-87.130899999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>12600.3</v>
       </c>
@@ -2576,7 +6873,7 @@
         <v>-87.209100000000007</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>12800.4</v>
       </c>
@@ -2584,7 +6881,7 @@
         <v>-87.411000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>12800.4</v>
       </c>
@@ -2592,7 +6889,7 @@
         <v>-87.442800000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>12800.4</v>
       </c>
@@ -2600,7 +6897,7 @@
         <v>-87.367199999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>13000.2</v>
       </c>
@@ -2608,7 +6905,7 @@
         <v>-87.595500000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>13000.2</v>
       </c>
@@ -2616,7 +6913,7 @@
         <v>-87.572599999999994</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>13000.2</v>
       </c>
@@ -2624,7 +6921,7 @@
         <v>-87.6554</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>13000.2</v>
       </c>
@@ -2632,7 +6929,7 @@
         <v>-87.68</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>13200.3</v>
       </c>
@@ -2640,7 +6937,7 @@
         <v>-87.626599999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>13200.3</v>
       </c>
@@ -2648,7 +6945,7 @@
         <v>-87.631699999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>13200.3</v>
       </c>
@@ -2656,7 +6953,7 @@
         <v>-87.848299999999995</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>13400.3</v>
       </c>
@@ -2664,7 +6961,7 @@
         <v>-87.892399999999995</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>13400.3</v>
       </c>
@@ -2672,7 +6969,7 @@
         <v>-88.035799999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>13400.3</v>
       </c>
@@ -2680,7 +6977,7 @@
         <v>-87.942800000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>13600.4</v>
       </c>
@@ -2688,7 +6985,7 @@
         <v>-88.067099999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>13600.4</v>
       </c>
@@ -2696,7 +6993,7 @@
         <v>-88.134200000000007</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>13600.4</v>
       </c>
@@ -2704,7 +7001,7 @@
         <v>-88.159700000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>13800.2</v>
       </c>
@@ -2712,7 +7009,7 @@
         <v>-88.325400000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>13800.2</v>
       </c>
@@ -2720,7 +7017,7 @@
         <v>-88.224699999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>13800.2</v>
       </c>
@@ -2728,7 +7025,7 @@
         <v>-88.308700000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>13800.2</v>
       </c>
@@ -2736,7 +7033,7 @@
         <v>-88.160200000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>14000.3</v>
       </c>
@@ -2744,7 +7041,7 @@
         <v>-88.361599999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>14000.3</v>
       </c>
@@ -2752,7 +7049,7 @@
         <v>-88.273499999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>14000.3</v>
       </c>
@@ -2760,7 +7057,7 @@
         <v>-88.312799999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>14200.3</v>
       </c>
@@ -2768,7 +7065,7 @@
         <v>-88.460300000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>14200.3</v>
       </c>
@@ -2776,7 +7073,7 @@
         <v>-88.5625</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>14200.3</v>
       </c>
@@ -2784,7 +7081,7 @@
         <v>-88.638499999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>14400.2</v>
       </c>
@@ -2792,7 +7089,7 @@
         <v>-88.746300000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>14400.2</v>
       </c>
@@ -2800,7 +7097,7 @@
         <v>-88.740300000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>14400.2</v>
       </c>
@@ -2808,7 +7105,7 @@
         <v>-88.658699999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>14400.2</v>
       </c>
@@ -2816,7 +7113,7 @@
         <v>-88.596299999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>14600.3</v>
       </c>
@@ -2824,7 +7121,7 @@
         <v>-88.775700000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>14600.3</v>
       </c>
@@ -2832,7 +7129,7 @@
         <v>-88.756200000000007</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>14600.2</v>
       </c>
@@ -2840,7 +7137,7 @@
         <v>-88.784499999999994</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>14800.3</v>
       </c>
@@ -2848,7 +7145,7 @@
         <v>-89.077699999999993</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>14800.3</v>
       </c>
@@ -2856,7 +7153,7 @@
         <v>-89.019499999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>14800.3</v>
       </c>
@@ -2864,7 +7161,7 @@
         <v>-89.018100000000004</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>15000.3</v>
       </c>
@@ -2872,7 +7169,7 @@
         <v>-89.185400000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>15000.4</v>
       </c>
@@ -2880,7 +7177,7 @@
         <v>-89.001000000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>15000.4</v>
       </c>
@@ -2888,7 +7185,7 @@
         <v>-88.940200000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>15000.3</v>
       </c>
@@ -2896,7 +7193,7 @@
         <v>-89.048400000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>15200.2</v>
       </c>
@@ -2904,7 +7201,7 @@
         <v>-89.126000000000005</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>15200.2</v>
       </c>
@@ -2912,7 +7209,7 @@
         <v>-89.308400000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>15200.2</v>
       </c>
@@ -2920,7 +7217,7 @@
         <v>-89.083799999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>15400.3</v>
       </c>
@@ -2928,7 +7225,7 @@
         <v>-89.221400000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>15400.3</v>
       </c>
@@ -2936,7 +7233,7 @@
         <v>-89.234800000000007</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>15400.3</v>
       </c>
@@ -2944,7 +7241,7 @@
         <v>-89.256799999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>15600.3</v>
       </c>
@@ -2952,7 +7249,7 @@
         <v>-89.410700000000006</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>15600.3</v>
       </c>
@@ -2960,7 +7257,7 @@
         <v>-89.569199999999995</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>15600.3</v>
       </c>
@@ -2968,7 +7265,7 @@
         <v>-89.483500000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>15600.3</v>
       </c>
@@ -2976,7 +7273,7 @@
         <v>-89.470399999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>15800.4</v>
       </c>
@@ -2984,7 +7281,7 @@
         <v>-89.53</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>15800.4</v>
       </c>
@@ -2992,7 +7289,7 @@
         <v>-89.568299999999994</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>15800.4</v>
       </c>
@@ -3000,7 +7297,7 @@
         <v>-89.484200000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>16000.2</v>
       </c>
@@ -3008,7 +7305,7 @@
         <v>-89.611900000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>16000.2</v>
       </c>
@@ -3016,7 +7313,7 @@
         <v>-89.671999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>16000.2</v>
       </c>
@@ -3024,7 +7321,7 @@
         <v>-89.6464</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>16200.3</v>
       </c>
@@ -3032,7 +7329,7 @@
         <v>-89.922300000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>16200.3</v>
       </c>
@@ -3040,7 +7337,7 @@
         <v>-89.8386</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>16200.3</v>
       </c>
@@ -3048,7 +7345,7 @@
         <v>-89.798100000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>16400.3</v>
       </c>
@@ -3056,7 +7353,7 @@
         <v>-89.817700000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>16400.3</v>
       </c>
@@ -3064,7 +7361,7 @@
         <v>-89.810299999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>16400.3</v>
       </c>
@@ -3072,7 +7369,7 @@
         <v>-90.072699999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>16400.3</v>
       </c>
@@ -3080,7 +7377,7 @@
         <v>-89.741900000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>16600.400000000001</v>
       </c>
@@ -3088,7 +7385,7 @@
         <v>-89.912499999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>16600.400000000001</v>
       </c>
@@ -3096,7 +7393,7 @@
         <v>-90.014499999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>16600.400000000001</v>
       </c>
@@ -3104,7 +7401,7 @@
         <v>-90.048500000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>16800.2</v>
       </c>
@@ -3112,7 +7409,7 @@
         <v>-90.105599999999995</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>16800.2</v>
       </c>
@@ -3120,7 +7417,7 @@
         <v>-90.204800000000006</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>16800.2</v>
       </c>
@@ -3128,7 +7425,7 @@
         <v>-90.049899999999994</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>17000.3</v>
       </c>
@@ -3136,7 +7433,7 @@
         <v>-90.108999999999995</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>17000.3</v>
       </c>
@@ -3144,7 +7441,7 @@
         <v>-90.134600000000006</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>17000.3</v>
       </c>
@@ -3152,7 +7449,7 @@
         <v>-90.1845</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>17000.3</v>
       </c>
@@ -3160,7 +7457,7 @@
         <v>-90.151799999999994</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>17200.3</v>
       </c>
@@ -3168,7 +7465,7 @@
         <v>-90.393500000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>17200.3</v>
       </c>
@@ -3176,7 +7473,7 @@
         <v>-90.423199999999994</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>17200.3</v>
       </c>
@@ -3184,7 +7481,7 @@
         <v>-90.430899999999994</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>17400.400000000001</v>
       </c>
@@ -3192,7 +7489,7 @@
         <v>-90.473299999999995</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>17400.400000000001</v>
       </c>
@@ -3200,7 +7497,7 @@
         <v>-90.331599999999995</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>17400.400000000001</v>
       </c>
@@ -3208,7 +7505,7 @@
         <v>-90.570499999999996</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>17600.2</v>
       </c>
@@ -3216,7 +7513,7 @@
         <v>-90.514700000000005</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>17600.2</v>
       </c>
@@ -3224,7 +7521,7 @@
         <v>-90.4786</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>17600.2</v>
       </c>
@@ -3232,7 +7529,7 @@
         <v>-90.606499999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>17600.2</v>
       </c>
@@ -3240,7 +7537,7 @@
         <v>-90.616299999999995</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>17800.3</v>
       </c>
@@ -3248,7 +7545,7 @@
         <v>-90.715900000000005</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>17800.3</v>
       </c>
@@ -3256,7 +7553,7 @@
         <v>-90.554000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>17800.3</v>
       </c>
@@ -3264,7 +7561,7 @@
         <v>-90.494500000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>18000.3</v>
       </c>
@@ -3272,7 +7569,7 @@
         <v>-90.6648</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>18000.3</v>
       </c>
@@ -3280,7 +7577,7 @@
         <v>-90.563699999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>18000.3</v>
       </c>
@@ -3288,7 +7585,7 @@
         <v>-90.602999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>18200.400000000001</v>
       </c>
@@ -3296,7 +7593,7 @@
         <v>-90.712199999999996</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>18200.400000000001</v>
       </c>
@@ -3304,7 +7601,7 @@
         <v>-90.743300000000005</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>18200.400000000001</v>
       </c>
@@ -3312,7 +7609,7 @@
         <v>-90.827200000000005</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>18200.400000000001</v>
       </c>
@@ -3320,7 +7617,7 @@
         <v>-90.796899999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>18400.3</v>
       </c>
@@ -3328,7 +7625,7 @@
         <v>-90.778999999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>18400.3</v>
       </c>
@@ -3336,7 +7633,7 @@
         <v>-90.764899999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>18400.3</v>
       </c>
@@ -3344,7 +7641,7 @@
         <v>-90.8626</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>18600.3</v>
       </c>
@@ -3352,7 +7649,7 @@
         <v>-90.936499999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>18600.3</v>
       </c>
@@ -3360,7 +7657,7 @@
         <v>-91.079400000000007</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>18600.3</v>
       </c>
@@ -3368,7 +7665,7 @@
         <v>-90.803100000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>18800.3</v>
       </c>
@@ -3376,7 +7673,7 @@
         <v>-91.000399999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>18800.400000000001</v>
       </c>
@@ -3384,7 +7681,7 @@
         <v>-91.041200000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>18800.400000000001</v>
       </c>
@@ -3392,7 +7689,7 @@
         <v>-90.914699999999996</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>19000.400000000001</v>
       </c>
@@ -3400,7 +7697,7 @@
         <v>-91.046700000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>19000.400000000001</v>
       </c>
@@ -3408,7 +7705,7 @@
         <v>-90.960800000000006</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>19000.400000000001</v>
       </c>
@@ -3416,7 +7713,7 @@
         <v>-91.0197</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>19000.400000000001</v>
       </c>
@@ -3424,7 +7721,7 @@
         <v>-91.071399999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>19200.3</v>
       </c>
@@ -3432,7 +7729,7 @@
         <v>-91.351799999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>19200.3</v>
       </c>
@@ -3440,7 +7737,7 @@
         <v>-91.229699999999994</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>19200.3</v>
       </c>
@@ -3448,7 +7745,7 @@
         <v>-91.222399999999993</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>19400.3</v>
       </c>
@@ -3456,7 +7753,7 @@
         <v>-91.115700000000004</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>19400.3</v>
       </c>
@@ -3464,7 +7761,7 @@
         <v>-91.388900000000007</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>19400.3</v>
       </c>
@@ -3472,7 +7769,7 @@
         <v>-91.231399999999994</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>19600.400000000001</v>
       </c>
@@ -3480,7 +7777,7 @@
         <v>-91.181100000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>19600.400000000001</v>
       </c>
@@ -3488,7 +7785,7 @@
         <v>-91.259299999999996</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>19600.400000000001</v>
       </c>
@@ -3496,7 +7793,7 @@
         <v>-91.388800000000003</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>19600.400000000001</v>
       </c>
@@ -3504,7 +7801,7 @@
         <v>-91.352800000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>19800.400000000001</v>
       </c>
@@ -3512,7 +7809,7 @@
         <v>-91.341200000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>19800.400000000001</v>
       </c>
@@ -3520,7 +7817,7 @@
         <v>-91.221299999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>19800.400000000001</v>
       </c>
@@ -3528,7 +7825,7 @@
         <v>-91.447800000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>20000.3</v>
       </c>
@@ -3536,7 +7833,7 @@
         <v>268.65899999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>20000.3</v>
       </c>
@@ -3544,7 +7841,7 @@
         <v>268.43299999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>20000.3</v>
       </c>
@@ -3552,7 +7849,7 @@
         <v>268.55900000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>20200.3</v>
       </c>
@@ -3560,7 +7857,7 @@
         <v>-91.579499999999996</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>20200.3</v>
       </c>
@@ -3568,7 +7865,7 @@
         <v>-91.637500000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>20200.3</v>
       </c>
@@ -3576,7 +7873,7 @@
         <v>-91.615600000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>20200.3</v>
       </c>
@@ -3584,7 +7881,7 @@
         <v>-91.692899999999995</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>20400.400000000001</v>
       </c>
@@ -3592,7 +7889,7 @@
         <v>-91.475300000000004</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>20400.400000000001</v>
       </c>
@@ -3600,7 +7897,7 @@
         <v>-91.375399999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>20400.400000000001</v>
       </c>
@@ -3608,7 +7905,7 @@
         <v>-91.774699999999996</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>20600.2</v>
       </c>
@@ -3616,7 +7913,7 @@
         <v>-91.530100000000004</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>20600.2</v>
       </c>
@@ -3624,7 +7921,7 @@
         <v>-91.432500000000005</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>20600.2</v>
       </c>
@@ -3632,7 +7929,7 @@
         <v>-91.694400000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>20800.3</v>
       </c>
@@ -3640,7 +7937,7 @@
         <v>-91.794600000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>20800.3</v>
       </c>
@@ -3648,7 +7945,7 @@
         <v>-91.804400000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>20800.3</v>
       </c>
@@ -3656,7 +7953,7 @@
         <v>-91.787499999999994</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>20800.3</v>
       </c>
@@ -3664,7 +7961,7 @@
         <v>-91.838499999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>21000.3</v>
       </c>
@@ -3672,7 +7969,7 @@
         <v>-91.8904</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>21000.3</v>
       </c>
@@ -3680,7 +7977,7 @@
         <v>-91.675200000000004</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>21000.3</v>
       </c>
@@ -3688,7 +7985,7 @@
         <v>-91.850099999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>21200.400000000001</v>
       </c>
@@ -3696,7 +7993,7 @@
         <v>-91.947999999999993</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>21200.400000000001</v>
       </c>
@@ -3704,7 +8001,7 @@
         <v>-91.694900000000004</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>21200.400000000001</v>
       </c>
@@ -3712,7 +8009,7 @@
         <v>-91.8065</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>21400.3</v>
       </c>
@@ -3720,7 +8017,7 @@
         <v>-91.872200000000007</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>21400.3</v>
       </c>
@@ -3728,7 +8025,7 @@
         <v>-91.756600000000006</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>21400.3</v>
       </c>
@@ -3736,7 +8033,7 @@
         <v>-91.957599999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>21600.3</v>
       </c>
@@ -3744,7 +8041,7 @@
         <v>-91.785600000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>21600.3</v>
       </c>
@@ -3752,7 +8049,7 @@
         <v>-91.907799999999995</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>21600.3</v>
       </c>
@@ -3760,7 +8057,7 @@
         <v>-91.786199999999994</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>21600.3</v>
       </c>
@@ -3768,7 +8065,7 @@
         <v>-92.1267</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>21800.400000000001</v>
       </c>
@@ -3776,7 +8073,7 @@
         <v>-92.018000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>21800.3</v>
       </c>
@@ -3784,7 +8081,7 @@
         <v>-91.739699999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>21800.3</v>
       </c>
@@ -3792,7 +8089,7 @@
         <v>-91.838700000000003</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>22000.400000000001</v>
       </c>
@@ -3800,7 +8097,7 @@
         <v>-91.887299999999996</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>22000.400000000001</v>
       </c>
@@ -3808,7 +8105,7 @@
         <v>-92.123699999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>22000.400000000001</v>
       </c>
@@ -3816,7 +8113,7 @@
         <v>-92.0184</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>22200.3</v>
       </c>
@@ -3824,7 +8121,7 @@
         <v>-92.182500000000005</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>22200.3</v>
       </c>
@@ -3832,7 +8129,7 @@
         <v>-92.165400000000005</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>22200.3</v>
       </c>
@@ -3840,7 +8137,7 @@
         <v>-91.8566</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>22200.3</v>
       </c>
@@ -3848,7 +8145,7 @@
         <v>-92.1447</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>22400.3</v>
       </c>
@@ -3856,7 +8153,7 @@
         <v>-92.251900000000006</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>22400.3</v>
       </c>
@@ -3864,7 +8161,7 @@
         <v>-92.260099999999994</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>22400.3</v>
       </c>
@@ -3872,7 +8169,7 @@
         <v>-92.208699999999993</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>22600.400000000001</v>
       </c>
@@ -3880,7 +8177,7 @@
         <v>-91.967299999999994</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>22600.400000000001</v>
       </c>
@@ -3888,7 +8185,7 @@
         <v>-92.207599999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>22600.400000000001</v>
       </c>
@@ -3896,7 +8193,7 @@
         <v>-92.278899999999993</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>22800.400000000001</v>
       </c>
@@ -3904,7 +8201,7 @@
         <v>-92.315399999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>22800.400000000001</v>
       </c>
@@ -3912,7 +8209,7 @@
         <v>-92.009299999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>22800.400000000001</v>
       </c>
@@ -3920,7 +8217,7 @@
         <v>-92.309600000000003</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>22800.400000000001</v>
       </c>
@@ -3928,7 +8225,7 @@
         <v>-92.204899999999995</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>23000.3</v>
       </c>
@@ -3936,7 +8233,7 @@
         <v>-92.335400000000007</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>23000.3</v>
       </c>
@@ -3944,7 +8241,7 @@
         <v>-92.285700000000006</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>23000.3</v>
       </c>
@@ -3952,7 +8249,7 @@
         <v>-92.026700000000005</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>23200.3</v>
       </c>
@@ -3960,7 +8257,7 @@
         <v>-92.429299999999998</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>23200.3</v>
       </c>
@@ -3968,7 +8265,7 @@
         <v>-92.144800000000004</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>23200.3</v>
       </c>
@@ -3976,7 +8273,7 @@
         <v>-92.3874</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>23400.400000000001</v>
       </c>
@@ -3984,7 +8281,7 @@
         <v>-92.215000000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>23400.400000000001</v>
       </c>
@@ -3992,7 +8289,7 @@
         <v>-92.051000000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>23400.400000000001</v>
       </c>
@@ -4000,7 +8297,7 @@
         <v>-92.063699999999997</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>23400.400000000001</v>
       </c>
@@ -4008,7 +8305,7 @@
         <v>-92.465299999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>23600.400000000001</v>
       </c>
@@ -4016,7 +8313,7 @@
         <v>-92.455299999999994</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>23600.400000000001</v>
       </c>
@@ -4024,7 +8321,7 @@
         <v>-92.437100000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>23600.400000000001</v>
       </c>
@@ -4032,7 +8329,7 @@
         <v>-92.385999999999996</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>23800.3</v>
       </c>
@@ -4040,7 +8337,7 @@
         <v>-92.344800000000006</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>23800.3</v>
       </c>
@@ -4048,7 +8345,7 @@
         <v>-92.210300000000004</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>23800.3</v>
       </c>
@@ -4056,7 +8353,7 @@
         <v>-92.522999999999996</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>24000.3</v>
       </c>
@@ -4064,7 +8361,7 @@
         <v>-92.490399999999994</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>24000.3</v>
       </c>
@@ -4072,7 +8369,7 @@
         <v>-92.4709</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>24000.3</v>
       </c>
@@ -4080,7 +8377,7 @@
         <v>-92.5184</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>24200.400000000001</v>
       </c>
@@ -4088,7 +8385,7 @@
         <v>-92.398899999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>24200.400000000001</v>
       </c>
@@ -4096,7 +8393,7 @@
         <v>-92.375600000000006</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>24200.400000000001</v>
       </c>
@@ -4104,7 +8401,7 @@
         <v>-92.488699999999994</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>24200.400000000001</v>
       </c>
@@ -4112,7 +8409,7 @@
         <v>-92.440899999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>24400.400000000001</v>
       </c>
@@ -4120,7 +8417,7 @@
         <v>-92.577200000000005</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>24400.400000000001</v>
       </c>
@@ -4128,7 +8425,7 @@
         <v>-92.351900000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>24400.400000000001</v>
       </c>
@@ -4136,7 +8433,7 @@
         <v>-92.367500000000007</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>24600.3</v>
       </c>
@@ -4144,7 +8441,7 @@
         <v>-92.262</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>24600.3</v>
       </c>
@@ -4152,7 +8449,7 @@
         <v>-92.564499999999995</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>24600.3</v>
       </c>
@@ -4160,7 +8457,7 @@
         <v>-92.356800000000007</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>24800.400000000001</v>
       </c>
@@ -4168,7 +8465,7 @@
         <v>-92.686700000000002</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>24800.400000000001</v>
       </c>
@@ -4176,7 +8473,7 @@
         <v>-92.251499999999993</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>24800.3</v>
       </c>
@@ -4184,7 +8481,7 @@
         <v>-92.251300000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>24800.3</v>
       </c>
@@ -4192,7 +8489,7 @@
         <v>-92.296899999999994</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>25000.400000000001</v>
       </c>
@@ -4200,7 +8497,7 @@
         <v>-92.220399999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>25000.400000000001</v>
       </c>
@@ -4208,7 +8505,7 @@
         <v>-92.615200000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>25000.400000000001</v>
       </c>
@@ -4216,7 +8513,7 @@
         <v>-92.514300000000006</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>25200.5</v>
       </c>
@@ -4224,7 +8521,7 @@
         <v>-92.540400000000005</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>25200.400000000001</v>
       </c>
@@ -4232,7 +8529,7 @@
         <v>-92.368600000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>25200.400000000001</v>
       </c>
@@ -4240,7 +8537,7 @@
         <v>-92.578000000000003</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>25400.3</v>
       </c>
@@ -4248,7 +8545,7 @@
         <v>-92.442700000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>25400.3</v>
       </c>
@@ -4256,7 +8553,7 @@
         <v>-92.369200000000006</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>25400.3</v>
       </c>
@@ -4264,7 +8561,7 @@
         <v>-92.483199999999997</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>25400.3</v>
       </c>
@@ -4272,7 +8569,7 @@
         <v>-92.587000000000003</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>25600.400000000001</v>
       </c>
@@ -4280,7 +8577,7 @@
         <v>-92.3155</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>25600.400000000001</v>
       </c>
@@ -4288,7 +8585,7 @@
         <v>-92.283299999999997</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>25600.400000000001</v>
       </c>
@@ -4296,7 +8593,7 @@
         <v>-92.635599999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>25800.400000000001</v>
       </c>
@@ -4304,7 +8601,7 @@
         <v>-92.5839</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>25800.400000000001</v>
       </c>
@@ -4312,7 +8609,7 @@
         <v>-92.399500000000003</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>25800.400000000001</v>
       </c>
@@ -4320,7 +8617,7 @@
         <v>-92.405299999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>26000.5</v>
       </c>
@@ -4328,7 +8625,7 @@
         <v>-92.483000000000004</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>26000.5</v>
       </c>
@@ -4336,7 +8633,7 @@
         <v>-92.406099999999995</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>26000.5</v>
       </c>
@@ -4344,7 +8641,7 @@
         <v>-92.3108</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>26000.5</v>
       </c>
@@ -4352,7 +8649,7 @@
         <v>-92.4178</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>26200.3</v>
       </c>
@@ -4360,7 +8657,7 @@
         <v>-92.400400000000005</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>26200.3</v>
       </c>
@@ -4368,7 +8665,7 @@
         <v>-92.548500000000004</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>26200.3</v>
       </c>
@@ -4376,7 +8673,7 @@
         <v>-92.675899999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>26400.400000000001</v>
       </c>
@@ -4384,7 +8681,7 @@
         <v>-92.501000000000005</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>26400.400000000001</v>
       </c>
@@ -4392,7 +8689,7 @@
         <v>-92.645700000000005</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>26400.400000000001</v>
       </c>
@@ -4400,7 +8697,7 @@
         <v>-92.660200000000003</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>26600.400000000001</v>
       </c>
@@ -4408,7 +8705,7 @@
         <v>-92.458799999999997</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>26600.400000000001</v>
       </c>
@@ -4416,7 +8713,7 @@
         <v>-92.601299999999995</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>26600.400000000001</v>
       </c>
@@ -4424,7 +8721,7 @@
         <v>-92.669799999999995</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>26800.3</v>
       </c>
@@ -4432,7 +8729,7 @@
         <v>-92.638499999999993</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>26800.3</v>
       </c>
@@ -4440,7 +8737,7 @@
         <v>-92.715299999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>26800.3</v>
       </c>
@@ -4448,7 +8745,7 @@
         <v>-92.754800000000003</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>26800.3</v>
       </c>
@@ -4456,7 +8753,7 @@
         <v>-92.516000000000005</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>27000.3</v>
       </c>
@@ -4464,7 +8761,7 @@
         <v>-92.328400000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>27000.3</v>
       </c>
@@ -4472,7 +8769,7 @@
         <v>-92.460499999999996</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>27000.3</v>
       </c>
@@ -4480,7 +8777,7 @@
         <v>-92.391000000000005</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>27200.400000000001</v>
       </c>
@@ -4488,7 +8785,7 @@
         <v>-92.548199999999994</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>27200.400000000001</v>
       </c>
@@ -4496,7 +8793,7 @@
         <v>-92.545500000000004</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>27200.400000000001</v>
       </c>
@@ -4504,7 +8801,7 @@
         <v>-92.382499999999993</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>27400.400000000001</v>
       </c>
@@ -4512,7 +8809,7 @@
         <v>-92.326700000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>27400.400000000001</v>
       </c>
@@ -4520,7 +8817,7 @@
         <v>-92.367699999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>27400.400000000001</v>
       </c>
@@ -4528,7 +8825,7 @@
         <v>-92.465500000000006</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>27400.400000000001</v>
       </c>
@@ -4536,7 +8833,7 @@
         <v>-92.711200000000005</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>27600.3</v>
       </c>
@@ -4544,7 +8841,7 @@
         <v>-92.643500000000003</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>27600.3</v>
       </c>
@@ -4552,7 +8849,7 @@
         <v>-92.691100000000006</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>27600.3</v>
       </c>
@@ -4560,7 +8857,7 @@
         <v>-92.582899999999995</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>27800.3</v>
       </c>
@@ -4568,7 +8865,7 @@
         <v>-92.644099999999995</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>27800.3</v>
       </c>
@@ -4576,7 +8873,7 @@
         <v>-92.524500000000003</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>27800.3</v>
       </c>
@@ -4584,7 +8881,7 @@
         <v>-92.498400000000004</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>28000.400000000001</v>
       </c>
@@ -4592,7 +8889,7 @@
         <v>-92.308899999999994</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>28000.400000000001</v>
       </c>
@@ -4600,7 +8897,7 @@
         <v>-92.486699999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>28000.400000000001</v>
       </c>
@@ -4608,7 +8905,7 @@
         <v>-92.369299999999996</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>28000.400000000001</v>
       </c>
@@ -4616,7 +8913,7 @@
         <v>-92.541899999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>28200.400000000001</v>
       </c>
@@ -4624,7 +8921,7 @@
         <v>-92.511200000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>28200.5</v>
       </c>
@@ -4632,7 +8929,7 @@
         <v>-92.480699999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>28200.400000000001</v>
       </c>
@@ -4640,7 +8937,7 @@
         <v>-92.757499999999993</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>28400.3</v>
       </c>
@@ -4648,7 +8945,7 @@
         <v>-92.389899999999997</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>28400.3</v>
       </c>
@@ -4656,7 +8953,7 @@
         <v>-92.52</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>28400.3</v>
       </c>
@@ -4664,7 +8961,7 @@
         <v>-92.708200000000005</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>28600.400000000001</v>
       </c>
@@ -4672,7 +8969,7 @@
         <v>-92.579800000000006</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>28600.3</v>
       </c>
@@ -4680,7 +8977,7 @@
         <v>-92.7089</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>28600.400000000001</v>
       </c>
@@ -4688,7 +8985,7 @@
         <v>-92.623900000000006</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>28600.400000000001</v>
       </c>
@@ -4696,7 +8993,7 @@
         <v>-92.302099999999996</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>28800.400000000001</v>
       </c>
@@ -4704,7 +9001,7 @@
         <v>-92.587999999999994</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>28800.400000000001</v>
       </c>
@@ -4712,7 +9009,7 @@
         <v>-92.364800000000002</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>28800.400000000001</v>
       </c>
@@ -4720,7 +9017,7 @@
         <v>-92.523300000000006</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>29000.5</v>
       </c>
@@ -4728,7 +9025,7 @@
         <v>-92.606800000000007</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>29000.400000000001</v>
       </c>
@@ -4736,7 +9033,7 @@
         <v>-92.536000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>29000.400000000001</v>
       </c>
@@ -4744,7 +9041,7 @@
         <v>-92.373699999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>29200.3</v>
       </c>
@@ -4752,7 +9049,7 @@
         <v>-92.590900000000005</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>29200.3</v>
       </c>
@@ -4760,7 +9057,7 @@
         <v>-92.247699999999995</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>29200.3</v>
       </c>
@@ -4768,7 +9065,7 @@
         <v>-92.191199999999995</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>29200.3</v>
       </c>
@@ -4776,7 +9073,7 @@
         <v>-92.408100000000005</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>29400.400000000001</v>
       </c>
@@ -4784,7 +9081,7 @@
         <v>267.601</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>29400.400000000001</v>
       </c>
@@ -4792,7 +9089,7 @@
         <v>267.68400000000003</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>29400.400000000001</v>
       </c>
@@ -4800,7 +9097,7 @@
         <v>267.73200000000003</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>29600.400000000001</v>
       </c>
@@ -4808,7 +9105,7 @@
         <v>-92.627700000000004</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>29600.400000000001</v>
       </c>
@@ -4816,7 +9113,7 @@
         <v>-92.169399999999996</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>29600.400000000001</v>
       </c>
@@ -4824,7 +9121,7 @@
         <v>-92.404300000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>29800.5</v>
       </c>
@@ -4832,7 +9129,7 @@
         <v>-92.244100000000003</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>29800.5</v>
       </c>
@@ -4840,7 +9137,7 @@
         <v>-92.280500000000004</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>29800.5</v>
       </c>
@@ -4848,7 +9145,7 @@
         <v>-92.474699999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>29800.5</v>
       </c>
@@ -4856,7 +9153,7 @@
         <v>-92.227699999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>30000.3</v>
       </c>
@@ -4864,7 +9161,7 @@
         <v>-92.194199999999995</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>30000.3</v>
       </c>
@@ -4872,7 +9169,7 @@
         <v>-92.216200000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>30000.3</v>
       </c>
@@ -4880,7 +9177,7 @@
         <v>-92.341399999999993</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>30200.400000000001</v>
       </c>
@@ -4888,7 +9185,7 @@
         <v>-92.319199999999995</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>30200.400000000001</v>
       </c>
@@ -4896,7 +9193,7 @@
         <v>-92.175700000000006</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>30200.400000000001</v>
       </c>
@@ -4904,7 +9201,7 @@
         <v>-92.107200000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>30400.400000000001</v>
       </c>
@@ -4912,7 +9209,7 @@
         <v>-92.2517</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>30400.400000000001</v>
       </c>
@@ -4920,7 +9217,7 @@
         <v>-92.502399999999994</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>30400.400000000001</v>
       </c>
@@ -4928,7 +9225,7 @@
         <v>-92.244200000000006</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>30400.400000000001</v>
       </c>
@@ -4936,7 +9233,7 @@
         <v>-92.366500000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>30600.5</v>
       </c>
@@ -4944,7 +9241,7 @@
         <v>-92.312799999999996</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>30600.5</v>
       </c>
@@ -4952,7 +9249,7 @@
         <v>-92.530199999999994</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>30600.5</v>
       </c>
@@ -4960,7 +9257,7 @@
         <v>-92.536699999999996</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>30800.3</v>
       </c>
@@ -4968,7 +9265,7 @@
         <v>-92.434799999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>30800.3</v>
       </c>
@@ -4976,7 +9273,7 @@
         <v>-92.479699999999994</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>30800.3</v>
       </c>
@@ -4984,7 +9281,7 @@
         <v>-92.099199999999996</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>31000.400000000001</v>
       </c>
@@ -4992,7 +9289,7 @@
         <v>-92.217799999999997</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>31000.400000000001</v>
       </c>
@@ -5000,7 +9297,7 @@
         <v>-92.253699999999995</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>31000.400000000001</v>
       </c>
@@ -5008,7 +9305,7 @@
         <v>-92.541300000000007</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>31200.400000000001</v>
       </c>
@@ -5016,7 +9313,7 @@
         <v>-92.074600000000004</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>31200.400000000001</v>
       </c>
@@ -5024,7 +9321,7 @@
         <v>-92.181799999999996</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>31200.400000000001</v>
       </c>
@@ -5032,7 +9329,7 @@
         <v>-92.387900000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>31200.400000000001</v>
       </c>
@@ -5040,7 +9337,7 @@
         <v>-92.328000000000003</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>31400.5</v>
       </c>
@@ -5048,7 +9345,7 @@
         <v>-92.389200000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>31400.5</v>
       </c>
@@ -5056,7 +9353,7 @@
         <v>-91.956000000000003</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>31400.5</v>
       </c>
@@ -5064,7 +9361,7 @@
         <v>-91.935100000000006</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>31600.3</v>
       </c>
@@ -5072,7 +9369,7 @@
         <v>-92.186700000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>31600.3</v>
       </c>
@@ -5080,7 +9377,7 @@
         <v>-91.929599999999994</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>31600.400000000001</v>
       </c>
@@ -5088,7 +9385,7 @@
         <v>-92.259699999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>31800.400000000001</v>
       </c>
@@ -5096,7 +9393,7 @@
         <v>-91.847399999999993</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>31800.400000000001</v>
       </c>
@@ -5104,7 +9401,7 @@
         <v>-92.130099999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>31800.400000000001</v>
       </c>
@@ -5112,7 +9409,7 @@
         <v>-92.238299999999995</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>31800.400000000001</v>
       </c>
@@ -5120,7 +9417,7 @@
         <v>-92.355099999999993</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>32000.400000000001</v>
       </c>
@@ -5128,7 +9425,7 @@
         <v>-91.827100000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>32000.400000000001</v>
       </c>
@@ -5136,7 +9433,7 @@
         <v>-92.212900000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>32000.400000000001</v>
       </c>
@@ -5144,7 +9441,7 @@
         <v>-92.042299999999997</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>32200.5</v>
       </c>
@@ -5152,7 +9449,7 @@
         <v>-92.041700000000006</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>32200.5</v>
       </c>
@@ -5160,7 +9457,7 @@
         <v>-91.981399999999994</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>32200.5</v>
       </c>
@@ -5168,7 +9465,7 @@
         <v>-92.254499999999993</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>32400.400000000001</v>
       </c>
@@ -5176,7 +9473,7 @@
         <v>-91.977000000000004</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>32400.400000000001</v>
       </c>
@@ -5184,7 +9481,7 @@
         <v>-92.097200000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>32400.400000000001</v>
       </c>
@@ -5192,7 +9489,7 @@
         <v>-92.276200000000003</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>32400.400000000001</v>
       </c>
@@ -5200,7 +9497,7 @@
         <v>-92.152299999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>32600.400000000001</v>
       </c>
@@ -5208,7 +9505,7 @@
         <v>-91.994</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>32600.400000000001</v>
       </c>
@@ -5216,7 +9513,7 @@
         <v>-91.744299999999996</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>32600.400000000001</v>
       </c>
@@ -5224,7 +9521,7 @@
         <v>-92.276200000000003</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>32800.5</v>
       </c>
@@ -5232,7 +9529,7 @@
         <v>-91.766199999999998</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>32800.5</v>
       </c>
@@ -5240,7 +9537,7 @@
         <v>-92.127600000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>32800.5</v>
       </c>
@@ -5248,7 +9545,7 @@
         <v>-91.869100000000003</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>33000.300000000003</v>
       </c>
@@ -5256,7 +9553,7 @@
         <v>-91.775599999999997</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>33000.300000000003</v>
       </c>
@@ -5264,7 +9561,7 @@
         <v>-91.837900000000005</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>33000.300000000003</v>
       </c>
@@ -5272,7 +9569,7 @@
         <v>-91.709199999999996</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>33000.300000000003</v>
       </c>
@@ -5280,7 +9577,7 @@
         <v>-92.071700000000007</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>33200.400000000001</v>
       </c>
@@ -5288,7 +9585,7 @@
         <v>-92.020099999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>33200.400000000001</v>
       </c>
@@ -5296,7 +9593,7 @@
         <v>-92.129300000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>33200.400000000001</v>
       </c>
@@ -5304,7 +9601,7 @@
         <v>-91.758899999999997</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>33400.400000000001</v>
       </c>
@@ -5312,7 +9609,7 @@
         <v>-91.775300000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>33400.400000000001</v>
       </c>
@@ -5320,7 +9617,7 @@
         <v>-91.940399999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>33400.400000000001</v>
       </c>
@@ -5328,7 +9625,7 @@
         <v>-91.616</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>33600.5</v>
       </c>
@@ -5336,7 +9633,7 @@
         <v>-91.77</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>33600.5</v>
       </c>
@@ -5344,7 +9641,7 @@
         <v>-91.805599999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>33600.5</v>
       </c>
@@ -5352,7 +9649,7 @@
         <v>-91.557400000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>33800.300000000003</v>
       </c>
@@ -5360,7 +9657,7 @@
         <v>-91.979500000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>33800.300000000003</v>
       </c>
@@ -5368,7 +9665,7 @@
         <v>-91.633399999999995</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>33800.300000000003</v>
       </c>
@@ -5376,7 +9673,7 @@
         <v>-91.752799999999993</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>33800.300000000003</v>
       </c>
@@ -5384,7 +9681,7 @@
         <v>-91.579899999999995</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>34000.400000000001</v>
       </c>
@@ -5392,7 +9689,7 @@
         <v>-91.640900000000002</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>34000.400000000001</v>
       </c>
@@ -5400,7 +9697,7 @@
         <v>-91.689800000000005</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>34000.400000000001</v>
       </c>
@@ -5408,7 +9705,7 @@
         <v>-91.993399999999994</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>34200.400000000001</v>
       </c>
@@ -5416,7 +9713,7 @@
         <v>-91.4452</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>34200.400000000001</v>
       </c>
@@ -5424,7 +9721,7 @@
         <v>-91.4405</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>34200.400000000001</v>
       </c>
@@ -5432,7 +9729,7 @@
         <v>-91.546400000000006</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>34400.5</v>
       </c>
@@ -5440,7 +9737,7 @@
         <v>-91.527299999999997</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>34400.5</v>
       </c>
@@ -5448,7 +9745,7 @@
         <v>-91.337500000000006</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>34400.5</v>
       </c>
@@ -5456,7 +9753,7 @@
         <v>-91.7547</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>34400.5</v>
       </c>
@@ -5464,7 +9761,7 @@
         <v>-91.418099999999995</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>34600.300000000003</v>
       </c>
@@ -5472,7 +9769,7 @@
         <v>-91.598399999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>34600.300000000003</v>
       </c>
@@ -5480,7 +9777,7 @@
         <v>-91.477699999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>34600.300000000003</v>
       </c>
@@ -5488,7 +9785,7 @@
         <v>-91.6387</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>34800.400000000001</v>
       </c>
@@ -5496,7 +9793,7 @@
         <v>-91.272300000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>34800.400000000001</v>
       </c>
@@ -5504,7 +9801,7 @@
         <v>-91.239199999999997</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>34800.400000000001</v>
       </c>
@@ -5514,5 +9811,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>